--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_6_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_6_sawtooth_0.1_.xlsx
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002174192602519498</v>
+        <v>0.0002260325465254232</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007978688449612836</v>
+        <v>0.001205506914802257</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.343777714701113</v>
+        <v>5.104541448224953</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.2034152012539003, 7.484140228148325]</t>
+          <t>[1.7794937042566659, 8.42958919219324]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.006851892436471774</v>
+        <v>0.002724275993294167</v>
       </c>
       <c r="N2" t="n">
-        <v>0.006851892436471774</v>
+        <v>0.002724275993294167</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.4151053356094625</v>
+        <v>-0.5031579825569237</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.1824212590087706, 0.3522105877898456]</t>
+          <t>[-1.1572633598809245, 0.1509473947670772]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.2880199669787731</v>
+        <v>0.1311864383694625</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2880199669787731</v>
+        <v>0.1311864383694625</v>
       </c>
       <c r="S2" t="n">
-        <v>13.69937902108645</v>
+        <v>13.58401488854082</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.989066199093534, 15.409691843079367]</t>
+          <t>[11.872715483617066, 15.29531429346457]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.717057057057097</v>
+        <v>2.081281281281331</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.45689689689693</v>
+        <v>-0.624384384384399</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.891011011011125</v>
+        <v>4.786946946947062</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.33000000000036</v>
+        <v>23.65000000000026</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>8.655439859284186e-06</v>
+        <v>2.065848421861638e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001955091054248699</v>
+        <v>0.0004105286123198618</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.337876968418493</v>
+        <v>5.377381939508083</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.4117570268500756, 8.263996909986911]</t>
+          <t>[2.8536156819553655, 7.9011481970608]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0003750973295089111</v>
+        <v>3.418700811286257e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0007501946590178221</v>
+        <v>6.837401622572514e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.427737265837157</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.943474197958004, -1.9120003337163105]</t>
+          <t>[0.9874475407679624, 2.19502669890458]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3.421431047367918e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>6.842862094735835e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>12.89516180922014</v>
+        <v>13.83580393894077</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.388744727093348, 14.401578891346935]</t>
+          <t>[12.242251235949084, 15.42935664193245]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.400780780780922</v>
+        <v>17.66056056056075</v>
       </c>
       <c r="X3" t="n">
-        <v>7.403723723723836</v>
+        <v>15.38788788788806</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.39783783783801</v>
+        <v>19.93323323323345</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_6_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_6_sawtooth_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002260325465254232</v>
+        <v>0.0005689471306609128</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001205506914802257</v>
+        <v>0.001728192682912696</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.104541448224953</v>
+        <v>4.964738885094696</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.7794937042566659, 8.42958919219324]</t>
+          <t>[1.6603607105725722, 8.26911705961682]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.002724275993294167</v>
+        <v>0.0033438253926239</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002724275993294167</v>
+        <v>0.0033438253926239</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.5031579825569237</v>
+        <v>-0.5408948312486928</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.1572633598809245, 0.1509473947670772]</t>
+          <t>[-1.2075791581366175, 0.12578949563923203]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.1311864383694625</v>
+        <v>0.111446277283938</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1311864383694625</v>
+        <v>0.111446277283938</v>
       </c>
       <c r="S2" t="n">
-        <v>13.58401488854082</v>
+        <v>13.11215776658772</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.872715483617066, 15.29531429346457]</t>
+          <t>[11.33604170423111, 14.888273828944332]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2.081281281281331</v>
+        <v>2.201221221221271</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.624384384384399</v>
+        <v>-0.5119119119119242</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.786946946947062</v>
+        <v>4.914354354354466</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.65000000000026</v>
+        <v>23.51000000000024</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.065848421861638e-05</v>
+        <v>5.983006534648894e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004105286123198618</v>
+        <v>1.558976219912394e-06</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.377381939508083</v>
+        <v>6.303907471528516</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.8536156819553655, 7.9011481970608]</t>
+          <t>[3.827514680963219, 8.780300262093814]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.418700811286257e-05</v>
+        <v>8.232678121444792e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>6.837401622572514e-05</v>
+        <v>1.646535624288958e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.591237119836271</v>
+        <v>1.364816027685657</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.9874475407679624, 2.19502669890458]</t>
+          <t>[0.8868159442565791, 1.8428161111147343]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.421431047367918e-07</v>
+        <v>3.593335207163761e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>6.842862094735835e-07</v>
+        <v>7.186670414327523e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>13.83580393894077</v>
+        <v>13.67003832742908</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.242251235949084, 15.42935664193245]</t>
+          <t>[12.171064005229372, 15.169012649628794]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.66056056056075</v>
+        <v>18.40322322322341</v>
       </c>
       <c r="X3" t="n">
-        <v>15.38788788788806</v>
+        <v>16.61467467467484</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.93323323323345</v>
+        <v>20.19177177177197</v>
       </c>
     </row>
   </sheetData>
